--- a/Mcdonalds/mcdonalds_all_store.xlsx
+++ b/Mcdonalds/mcdonalds_all_store.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
   <si>
     <t>매장명</t>
   </si>
@@ -37,6 +37,141 @@
     <t>대구동호DT</t>
   </si>
   <si>
+    <t>진주혁신GSDT</t>
+  </si>
+  <si>
+    <t>용인보라DT</t>
+  </si>
+  <si>
+    <t>진해용원DT</t>
+  </si>
+  <si>
+    <t>광양DT</t>
+  </si>
+  <si>
+    <t>제주중문DT</t>
+  </si>
+  <si>
+    <t>충남홍성DT</t>
+  </si>
+  <si>
+    <t>인천계산DT</t>
+  </si>
+  <si>
+    <t>부산초량 DT</t>
+  </si>
+  <si>
+    <t>진주가좌DT</t>
+  </si>
+  <si>
+    <t>위례신도시</t>
+  </si>
+  <si>
+    <t>부산하단DT</t>
+  </si>
+  <si>
+    <t>충남논산DT</t>
+  </si>
+  <si>
+    <t>망원점</t>
+  </si>
+  <si>
+    <t>평택소사벌점</t>
+  </si>
+  <si>
+    <t>부산명지DT점</t>
+  </si>
+  <si>
+    <t>경주용강 DT</t>
+  </si>
+  <si>
+    <t>목포남악DT점</t>
+  </si>
+  <si>
+    <t>고양원당DT점</t>
+  </si>
+  <si>
+    <t>동묘</t>
+  </si>
+  <si>
+    <t>부산 남천DT점</t>
+  </si>
+  <si>
+    <t>안산고잔 DT</t>
+  </si>
+  <si>
+    <t>전북정읍DT</t>
+  </si>
+  <si>
+    <t>구리인창 DT</t>
+  </si>
+  <si>
+    <t>강남삼성DT</t>
+  </si>
+  <si>
+    <t>부산정관DT점</t>
+  </si>
+  <si>
+    <t>홍제역</t>
+  </si>
+  <si>
+    <t>서울 상암 DMC</t>
+  </si>
+  <si>
+    <t>서판교 DT</t>
+  </si>
+  <si>
+    <t>춘천후평DT</t>
+  </si>
+  <si>
+    <t>화성향남DT</t>
+  </si>
+  <si>
+    <t>충남보령DT</t>
+  </si>
+  <si>
+    <t>구미옥계DT점</t>
+  </si>
+  <si>
+    <t>부산엄궁 DT</t>
+  </si>
+  <si>
+    <t>김해장유 DT</t>
+  </si>
+  <si>
+    <t>동해DT</t>
+  </si>
+  <si>
+    <t>밀양 DT</t>
+  </si>
+  <si>
+    <t>코엑스</t>
+  </si>
+  <si>
+    <t>보라매</t>
+  </si>
+  <si>
+    <t>판교테크노밸리</t>
+  </si>
+  <si>
+    <t>광명DT</t>
+  </si>
+  <si>
+    <t>서면 3</t>
+  </si>
+  <si>
+    <t>대구교대DT</t>
+  </si>
+  <si>
+    <t>고척DT</t>
+  </si>
+  <si>
+    <t>군포당동SK DT</t>
+  </si>
+  <si>
+    <t>부산다대DT점</t>
+  </si>
+  <si>
     <t>서울둔촌DT</t>
   </si>
   <si>
@@ -52,6 +187,141 @@
     <t>고양풍동DT</t>
   </si>
   <si>
+    <t>서산DT</t>
+  </si>
+  <si>
+    <t>부천역곡역DT</t>
+  </si>
+  <si>
+    <t>대구 다사DT</t>
+  </si>
+  <si>
+    <t>충남아산DT</t>
+  </si>
+  <si>
+    <t>우장산DT</t>
+  </si>
+  <si>
+    <t>제천DT점</t>
+  </si>
+  <si>
+    <t>미아DT</t>
+  </si>
+  <si>
+    <t>대구복현DT점</t>
+  </si>
+  <si>
+    <t>부천원종DT</t>
+  </si>
+  <si>
+    <t>부천심곡DT</t>
+  </si>
+  <si>
+    <t>울산 일산 DT</t>
+  </si>
+  <si>
+    <t>이천 DT</t>
+  </si>
+  <si>
+    <t>용인동백DT</t>
+  </si>
+  <si>
+    <t>구월 아시아드 DT점</t>
+  </si>
+  <si>
+    <t>구미인동DT</t>
+  </si>
+  <si>
+    <t>수원정자DT</t>
+  </si>
+  <si>
+    <t>대전부사DT</t>
+  </si>
+  <si>
+    <t>광명소하DT점</t>
+  </si>
+  <si>
+    <t>서울번동DT점</t>
+  </si>
+  <si>
+    <t>화성봉담DT</t>
+  </si>
+  <si>
+    <t>해운대DT</t>
+  </si>
+  <si>
+    <t>부산덕천 DT</t>
+  </si>
+  <si>
+    <t>부산사직DT점</t>
+  </si>
+  <si>
+    <t>제주월드컵스타디움DT</t>
+  </si>
+  <si>
+    <t>용인시청DT</t>
+  </si>
+  <si>
+    <t>천안고속버스터미널</t>
+  </si>
+  <si>
+    <t>부산동명대DT점</t>
+  </si>
+  <si>
+    <t>제주공항DT점</t>
+  </si>
+  <si>
+    <t>서울시흥DT</t>
+  </si>
+  <si>
+    <t>용인 신갈 DT점</t>
+  </si>
+  <si>
+    <t>안국역점</t>
+  </si>
+  <si>
+    <t>양산덕계DT점</t>
+  </si>
+  <si>
+    <t>하남시청DT점</t>
+  </si>
+  <si>
+    <t>과학기술대점</t>
+  </si>
+  <si>
+    <t>송파잠실DT</t>
+  </si>
+  <si>
+    <t>충남당진DT</t>
+  </si>
+  <si>
+    <t>방학역DT점</t>
+  </si>
+  <si>
+    <t>부산영도DT</t>
+  </si>
+  <si>
+    <t>상일동점</t>
+  </si>
+  <si>
+    <t>양주휴게소DT</t>
+  </si>
+  <si>
+    <t>김포감정DT점</t>
+  </si>
+  <si>
+    <t>양산북정 DT점</t>
+  </si>
+  <si>
+    <t>울산 삼산로 DT</t>
+  </si>
+  <si>
+    <t>경주보문DT</t>
+  </si>
+  <si>
+    <t>상계DT</t>
+  </si>
+  <si>
     <t>울산 굴화DT점</t>
   </si>
   <si>
@@ -67,6 +337,141 @@
     <t>동두천지행DT</t>
   </si>
   <si>
+    <t>인천옥련 DT점</t>
+  </si>
+  <si>
+    <t>순천조례DT</t>
+  </si>
+  <si>
+    <t>전주평화 DT</t>
+  </si>
+  <si>
+    <t>대구두류DT점</t>
+  </si>
+  <si>
+    <t>청주금천 DT</t>
+  </si>
+  <si>
+    <t>수원세류DT</t>
+  </si>
+  <si>
+    <t>명지대점</t>
+  </si>
+  <si>
+    <t>김포장기 DT</t>
+  </si>
+  <si>
+    <t>염창 DT점</t>
+  </si>
+  <si>
+    <t>수원 망포DT</t>
+  </si>
+  <si>
+    <t>강남대</t>
+  </si>
+  <si>
+    <t>부산구서DT</t>
+  </si>
+  <si>
+    <t>창원내서DT</t>
+  </si>
+  <si>
+    <t>학동역</t>
+  </si>
+  <si>
+    <t>목포하당DT점</t>
+  </si>
+  <si>
+    <t>제주일도 DT</t>
+  </si>
+  <si>
+    <t>김해외동DT점</t>
+  </si>
+  <si>
+    <t>인천삼산DT점</t>
+  </si>
+  <si>
+    <t>군포산본DT점</t>
+  </si>
+  <si>
+    <t>구리 수택</t>
+  </si>
+  <si>
+    <t>광주월산DT</t>
+  </si>
+  <si>
+    <t>수원인계DT</t>
+  </si>
+  <si>
+    <t>송도GS DT점</t>
+  </si>
+  <si>
+    <t>대구상인DT</t>
+  </si>
+  <si>
+    <t>대구 이곡DT</t>
+  </si>
+  <si>
+    <t>춘천퇴계DT</t>
+  </si>
+  <si>
+    <t>대전 유성 DT점</t>
+  </si>
+  <si>
+    <t>창원사파DT</t>
+  </si>
+  <si>
+    <t>전남대 DT</t>
+  </si>
+  <si>
+    <t>대전가수원DT</t>
+  </si>
+  <si>
+    <t>부산 구남DT점</t>
+  </si>
+  <si>
+    <t>익산영등DT점</t>
+  </si>
+  <si>
+    <t>대전 유천 DT점</t>
+  </si>
+  <si>
+    <t>수내역</t>
+  </si>
+  <si>
+    <t>마석DT</t>
+  </si>
+  <si>
+    <t>청주율량GS DT점</t>
+  </si>
+  <si>
+    <t>대구 본리DT점</t>
+  </si>
+  <si>
+    <t>수원 아주대점</t>
+  </si>
+  <si>
+    <t>성남신흥DT점</t>
+  </si>
+  <si>
+    <t>경희대국제캠퍼스</t>
+  </si>
+  <si>
+    <t>군산나운DT</t>
+  </si>
+  <si>
+    <t>전주효자 DT</t>
+  </si>
+  <si>
+    <t>대전신탄진DT점</t>
+  </si>
+  <si>
+    <t>수원 성균관대</t>
+  </si>
+  <si>
+    <t>의왕오전DT</t>
+  </si>
+  <si>
     <t>신사역</t>
   </si>
   <si>
@@ -82,6 +487,141 @@
     <t>만수DT점</t>
   </si>
   <si>
+    <t>외대</t>
+  </si>
+  <si>
+    <t>전주덕진 DT</t>
+  </si>
+  <si>
+    <t>장안사거리점</t>
+  </si>
+  <si>
+    <t>신월DT</t>
+  </si>
+  <si>
+    <t>이태원</t>
+  </si>
+  <si>
+    <t>노량진</t>
+  </si>
+  <si>
+    <t>동인천점</t>
+  </si>
+  <si>
+    <t>방배</t>
+  </si>
+  <si>
+    <t>수유</t>
+  </si>
+  <si>
+    <t>강선</t>
+  </si>
+  <si>
+    <t>사직점</t>
+  </si>
+  <si>
+    <t>안암</t>
+  </si>
+  <si>
+    <t>합성</t>
+  </si>
+  <si>
+    <t>신림</t>
+  </si>
+  <si>
+    <t>경주</t>
+  </si>
+  <si>
+    <t>영등포</t>
+  </si>
+  <si>
+    <t>주례</t>
+  </si>
+  <si>
+    <t>당감 DT</t>
+  </si>
+  <si>
+    <t>삼선</t>
+  </si>
+  <si>
+    <t>중계</t>
+  </si>
+  <si>
+    <t>세이브존 광명</t>
+  </si>
+  <si>
+    <t>세이브존 대전점</t>
+  </si>
+  <si>
+    <t>부산대 2</t>
+  </si>
+  <si>
+    <t>동아대</t>
+  </si>
+  <si>
+    <t>경성대</t>
+  </si>
+  <si>
+    <t>중랑</t>
+  </si>
+  <si>
+    <t>목동</t>
+  </si>
+  <si>
+    <t>좌동 1</t>
+  </si>
+  <si>
+    <t>부곡</t>
+  </si>
+  <si>
+    <t>신마산</t>
+  </si>
+  <si>
+    <t>안양</t>
+  </si>
+  <si>
+    <t>토곡</t>
+  </si>
+  <si>
+    <t>동성로 2</t>
+  </si>
+  <si>
+    <t>구의역</t>
+  </si>
+  <si>
+    <t>광명역점</t>
+  </si>
+  <si>
+    <t>화정역</t>
+  </si>
+  <si>
+    <t>포항 2</t>
+  </si>
+  <si>
+    <t>중계역</t>
+  </si>
+  <si>
+    <t>진해</t>
+  </si>
+  <si>
+    <t>대학로</t>
+  </si>
+  <si>
+    <t>신내</t>
+  </si>
+  <si>
+    <t>한양대</t>
+  </si>
+  <si>
+    <t>See&amp;See</t>
+  </si>
+  <si>
+    <t>진주신안</t>
+  </si>
+  <si>
+    <t>원동점</t>
+  </si>
+  <si>
     <t>양천구청DT점</t>
   </si>
   <si>
@@ -97,6 +637,141 @@
     <t>시화이마트</t>
   </si>
   <si>
+    <t>청담DT</t>
+  </si>
+  <si>
+    <t>상봉이마트</t>
+  </si>
+  <si>
+    <t>연신내</t>
+  </si>
+  <si>
+    <t>상무</t>
+  </si>
+  <si>
+    <t>달동</t>
+  </si>
+  <si>
+    <t>달맞이 DT</t>
+  </si>
+  <si>
+    <t>행신</t>
+  </si>
+  <si>
+    <t>방촌 DT</t>
+  </si>
+  <si>
+    <t>시청 DT</t>
+  </si>
+  <si>
+    <t>파리공원점</t>
+  </si>
+  <si>
+    <t>고양DT</t>
+  </si>
+  <si>
+    <t>탄현점</t>
+  </si>
+  <si>
+    <t>칠곡 2 DT</t>
+  </si>
+  <si>
+    <t>덕소</t>
+  </si>
+  <si>
+    <t>시흥은행</t>
+  </si>
+  <si>
+    <t>전농</t>
+  </si>
+  <si>
+    <t>만촌이마트</t>
+  </si>
+  <si>
+    <t>송탄</t>
+  </si>
+  <si>
+    <t>화명 DT</t>
+  </si>
+  <si>
+    <t>군산이마트</t>
+  </si>
+  <si>
+    <t>연수LG DT점</t>
+  </si>
+  <si>
+    <t>용인점</t>
+  </si>
+  <si>
+    <t>이마트 월배점</t>
+  </si>
+  <si>
+    <t>중동DT점</t>
+  </si>
+  <si>
+    <t>과천이마트</t>
+  </si>
+  <si>
+    <t>평촌호계점</t>
+  </si>
+  <si>
+    <t>원광대</t>
+  </si>
+  <si>
+    <t>가야</t>
+  </si>
+  <si>
+    <t>송정역</t>
+  </si>
+  <si>
+    <t>구미형곡점</t>
+  </si>
+  <si>
+    <t>철산역점</t>
+  </si>
+  <si>
+    <t>신천</t>
+  </si>
+  <si>
+    <t>만덕 DT</t>
+  </si>
+  <si>
+    <t>신흥DT점</t>
+  </si>
+  <si>
+    <t>정발산</t>
+  </si>
+  <si>
+    <t>이마트 포항점</t>
+  </si>
+  <si>
+    <t>의정부GS DT점</t>
+  </si>
+  <si>
+    <t>여수이마트</t>
+  </si>
+  <si>
+    <t>가락DT점</t>
+  </si>
+  <si>
+    <t>구리토평점</t>
+  </si>
+  <si>
+    <t>구산</t>
+  </si>
+  <si>
+    <t>용산 DT</t>
+  </si>
+  <si>
+    <t>강릉</t>
+  </si>
+  <si>
+    <t>용인수지점</t>
+  </si>
+  <si>
+    <t>창원이마트</t>
+  </si>
+  <si>
     <t>메가마트 남천점</t>
   </si>
   <si>
@@ -112,6 +787,141 @@
     <t>연수이마트</t>
   </si>
   <si>
+    <t>홈플러스 상동점</t>
+  </si>
+  <si>
+    <t>서울역</t>
+  </si>
+  <si>
+    <t>대전타임월드점</t>
+  </si>
+  <si>
+    <t>포천DT</t>
+  </si>
+  <si>
+    <t>수원화성DT</t>
+  </si>
+  <si>
+    <t>신도림 테크노점</t>
+  </si>
+  <si>
+    <t>양산DT점</t>
+  </si>
+  <si>
+    <t>창원시티7</t>
+  </si>
+  <si>
+    <t>연희 DT</t>
+  </si>
+  <si>
+    <t>양재</t>
+  </si>
+  <si>
+    <t>평택 세교DT점</t>
+  </si>
+  <si>
+    <t>성수이마트</t>
+  </si>
+  <si>
+    <t>오산DT점</t>
+  </si>
+  <si>
+    <t>용봉DT</t>
+  </si>
+  <si>
+    <t>쌍문DT점</t>
+  </si>
+  <si>
+    <t>서초뱅뱅</t>
+  </si>
+  <si>
+    <t>압구정CGV</t>
+  </si>
+  <si>
+    <t>은평이마트</t>
+  </si>
+  <si>
+    <t>울산SK점</t>
+  </si>
+  <si>
+    <t>제주노형 DT</t>
+  </si>
+  <si>
+    <t>종로 3</t>
+  </si>
+  <si>
+    <t>거제</t>
+  </si>
+  <si>
+    <t>안성점</t>
+  </si>
+  <si>
+    <t>구로디지털</t>
+  </si>
+  <si>
+    <t>웅상DT</t>
+  </si>
+  <si>
+    <t>동탄SK점</t>
+  </si>
+  <si>
+    <t>전주중화산점</t>
+  </si>
+  <si>
+    <t>명동</t>
+  </si>
+  <si>
+    <t>서초GS점</t>
+  </si>
+  <si>
+    <t>마산신포DT</t>
+  </si>
+  <si>
+    <t>천안두정 DT점</t>
+  </si>
+  <si>
+    <t>선릉</t>
+  </si>
+  <si>
+    <t>한티역</t>
+  </si>
+  <si>
+    <t>대구시지DT점</t>
+  </si>
+  <si>
+    <t>의정부녹양DT점</t>
+  </si>
+  <si>
+    <t>목포석현DT</t>
+  </si>
+  <si>
+    <t>속초DT</t>
+  </si>
+  <si>
+    <t>대구평리DT점</t>
+  </si>
+  <si>
+    <t>북수원DT점</t>
+  </si>
+  <si>
+    <t>중앙대</t>
+  </si>
+  <si>
+    <t>대구 침산DT</t>
+  </si>
+  <si>
+    <t>대전한남대DT점</t>
+  </si>
+  <si>
+    <t>대구희망DT점</t>
+  </si>
+  <si>
+    <t>원주단구DT점</t>
+  </si>
+  <si>
+    <t>공덕점</t>
+  </si>
+  <si>
     <t>신도림 디큐브</t>
   </si>
   <si>
@@ -127,6 +937,141 @@
     <t>양주덕계DT</t>
   </si>
   <si>
+    <t>구월DT점</t>
+  </si>
+  <si>
+    <t>이수점</t>
+  </si>
+  <si>
+    <t>대전 센트럴 DT점</t>
+  </si>
+  <si>
+    <t>대전터미널점</t>
+  </si>
+  <si>
+    <t>진주칠암 DT</t>
+  </si>
+  <si>
+    <t>가산비지니스센터점</t>
+  </si>
+  <si>
+    <t>포항남부DT점</t>
+  </si>
+  <si>
+    <t>김해삼정 DT</t>
+  </si>
+  <si>
+    <t>안양 비산 DT점</t>
+  </si>
+  <si>
+    <t>대전가장DT</t>
+  </si>
+  <si>
+    <t>충주교현 DT</t>
+  </si>
+  <si>
+    <t>의정부금오DT점</t>
+  </si>
+  <si>
+    <t>김포고촌SK DT점</t>
+  </si>
+  <si>
+    <t>울산호계 SK</t>
+  </si>
+  <si>
+    <t>평택서정 DT점</t>
+  </si>
+  <si>
+    <t>제주시청 DT</t>
+  </si>
+  <si>
+    <t>양재 SK DT</t>
+  </si>
+  <si>
+    <t>용인마북 DT</t>
+  </si>
+  <si>
+    <t>가산디지털</t>
+  </si>
+  <si>
+    <t>명동 2호점</t>
+  </si>
+  <si>
+    <t>천안 쌍용역 DT점</t>
+  </si>
+  <si>
+    <t>광주동림DT</t>
+  </si>
+  <si>
+    <t>어린이대공원점</t>
+  </si>
+  <si>
+    <t>강남구청</t>
+  </si>
+  <si>
+    <t>전주송천 DT</t>
+  </si>
+  <si>
+    <t>포항북부 DT</t>
+  </si>
+  <si>
+    <t>범일 SK DT</t>
+  </si>
+  <si>
+    <t>울산삼산DT</t>
+  </si>
+  <si>
+    <t>여의도</t>
+  </si>
+  <si>
+    <t>수원GS DT</t>
+  </si>
+  <si>
+    <t>중산DT점</t>
+  </si>
+  <si>
+    <t>대구진천DT점</t>
+  </si>
+  <si>
+    <t>광주첨단DT점</t>
+  </si>
+  <si>
+    <t>합정메세나폴리스</t>
+  </si>
+  <si>
+    <t>대구 모다 DT점</t>
+  </si>
+  <si>
+    <t>울산 병영</t>
+  </si>
+  <si>
+    <t>인천구산 DT</t>
+  </si>
+  <si>
+    <t>삼성역</t>
+  </si>
+  <si>
+    <t>부평SK DT</t>
+  </si>
+  <si>
+    <t>창원상남</t>
+  </si>
+  <si>
+    <t>용인수지DT</t>
+  </si>
+  <si>
+    <t>연세대점</t>
+  </si>
+  <si>
+    <t>신월남부 DT점</t>
+  </si>
+  <si>
+    <t>김해삼계 DT</t>
+  </si>
+  <si>
+    <t>광주운암DT</t>
+  </si>
+  <si>
     <t>사천DT</t>
   </si>
   <si>
@@ -142,6 +1087,141 @@
     <t>청주성화</t>
   </si>
   <si>
+    <t>초읍DT점</t>
+  </si>
+  <si>
+    <t>부산 교대 DT점</t>
+  </si>
+  <si>
+    <t>마두역점</t>
+  </si>
+  <si>
+    <t>경주황남 DT</t>
+  </si>
+  <si>
+    <t>동수원GS DT</t>
+  </si>
+  <si>
+    <t>오리역점</t>
+  </si>
+  <si>
+    <t>의정부역</t>
+  </si>
+  <si>
+    <t>원주 단계 DT점</t>
+  </si>
+  <si>
+    <t>평택 GS</t>
+  </si>
+  <si>
+    <t>진접DT</t>
+  </si>
+  <si>
+    <t>부산온천 SK DT</t>
+  </si>
+  <si>
+    <t>마장휴게소점</t>
+  </si>
+  <si>
+    <t>산본이마트</t>
+  </si>
+  <si>
+    <t>대구황금DT점</t>
+  </si>
+  <si>
+    <t>제주서귀포DT</t>
+  </si>
+  <si>
+    <t>대구만촌DT점</t>
+  </si>
+  <si>
+    <t>양평SK DT</t>
+  </si>
+  <si>
+    <t>부산송정 DT</t>
+  </si>
+  <si>
+    <t>서울교대점</t>
+  </si>
+  <si>
+    <t>평내 DT</t>
+  </si>
+  <si>
+    <t>창원역DT점</t>
+  </si>
+  <si>
+    <t>통영죽림DT</t>
+  </si>
+  <si>
+    <t>전주인후DT점</t>
+  </si>
+  <si>
+    <t>대구 수성DT</t>
+  </si>
+  <si>
+    <t>천안원성 DT</t>
+  </si>
+  <si>
+    <t>문학DT점</t>
+  </si>
+  <si>
+    <t>석촌역</t>
+  </si>
+  <si>
+    <t>오산세교DT점</t>
+  </si>
+  <si>
+    <t>구미도량 DT</t>
+  </si>
+  <si>
+    <t>청주봉명 DT</t>
+  </si>
+  <si>
+    <t>동판교</t>
+  </si>
+  <si>
+    <t>성균관대</t>
+  </si>
+  <si>
+    <t>부산황령DT점</t>
+  </si>
+  <si>
+    <t>잠실역</t>
+  </si>
+  <si>
+    <t>부산기장 DT</t>
+  </si>
+  <si>
+    <t>목원대점</t>
+  </si>
+  <si>
+    <t>청주비하 DT</t>
+  </si>
+  <si>
+    <t>등촌 DT</t>
+  </si>
+  <si>
+    <t>마리오 아울렛</t>
+  </si>
+  <si>
+    <t>울산 옥동</t>
+  </si>
+  <si>
+    <t>병점DT점</t>
+  </si>
+  <si>
+    <t>순천덕암DT점</t>
+  </si>
+  <si>
+    <t>동성로교보</t>
+  </si>
+  <si>
+    <t>만가대 DT</t>
+  </si>
+  <si>
+    <t>미아역</t>
+  </si>
+  <si>
     <t>대전카이스트점</t>
   </si>
   <si>
@@ -172,6 +1252,141 @@
     <t>대구 동구 안심로 403</t>
   </si>
   <si>
+    <t>경남 진주시 동진로 581</t>
+  </si>
+  <si>
+    <t>경기 용인시 기흥구 용구대로 1861</t>
+  </si>
+  <si>
+    <t>경남 창원시 진해구 용원로7번길 10</t>
+  </si>
+  <si>
+    <t>전남 광양시 동광길 5</t>
+  </si>
+  <si>
+    <t>제주특별자치도 서귀포시 중문관광로 38</t>
+  </si>
+  <si>
+    <t>충남 홍성군 홍성읍 충서로 1528</t>
+  </si>
+  <si>
+    <t>인천 계양구 오조산로 39</t>
+  </si>
+  <si>
+    <t>부산 동구 중앙대로 228</t>
+  </si>
+  <si>
+    <t>경남 진주시 진주대로 612</t>
+  </si>
+  <si>
+    <t>서울 송파구 위례광장로 290번지 위례중앙푸르지오 2단지</t>
+  </si>
+  <si>
+    <t>부산 사하구 낙동대로 431</t>
+  </si>
+  <si>
+    <t>충남 논산시 시민로 247</t>
+  </si>
+  <si>
+    <t>서울 마포구 월드컵로 81 (망원동)</t>
+  </si>
+  <si>
+    <t>경기 평택시 평남로 862</t>
+  </si>
+  <si>
+    <t>부산 강서구 명지국제8로 270</t>
+  </si>
+  <si>
+    <t>경북 경주시 산업로 4364</t>
+  </si>
+  <si>
+    <t>전남 무안군 삼향읍 남악3로 58</t>
+  </si>
+  <si>
+    <t>경기 고양시 덕양구 호국로 777</t>
+  </si>
+  <si>
+    <t>서울 종로구 종로 339</t>
+  </si>
+  <si>
+    <t>부산 수영구 수영로 470</t>
+  </si>
+  <si>
+    <t>경기 안산시 단원구 광덕3로 145-3</t>
+  </si>
+  <si>
+    <t>전북 정읍시 남북로 51</t>
+  </si>
+  <si>
+    <t>경기 구리시 동구릉로 130</t>
+  </si>
+  <si>
+    <t>서울 강남구 봉은사로 432</t>
+  </si>
+  <si>
+    <t>부산 기장군 정관읍 정관로 584</t>
+  </si>
+  <si>
+    <t>서울 서대문구 통일로 442-1</t>
+  </si>
+  <si>
+    <t>서울 마포구 월드컵북로 400 1층 맥도날드</t>
+  </si>
+  <si>
+    <t>경기 성남시 분당구 운중로 190</t>
+  </si>
+  <si>
+    <t>강원 춘천시 후석로 334</t>
+  </si>
+  <si>
+    <t>경기 화성시 향남읍 행정남로 120</t>
+  </si>
+  <si>
+    <t>충남 보령시 터미널길 3</t>
+  </si>
+  <si>
+    <t>경북 구미시 옥계2공단로 390</t>
+  </si>
+  <si>
+    <t>부산 사상구 낙동대로 745</t>
+  </si>
+  <si>
+    <t>경남 김해시 삼문로 34</t>
+  </si>
+  <si>
+    <t>강원 동해시 한섬로 93</t>
+  </si>
+  <si>
+    <t>경남 밀양시 밀양대로 1872</t>
+  </si>
+  <si>
+    <t>서울 강남구 영동대로 513 B1 A102 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 영등포구 여의대방로 145 세인트빌딩</t>
+  </si>
+  <si>
+    <t>경기 성남시 분당구 판교역로 231 H스퀘어 S동 1층</t>
+  </si>
+  <si>
+    <t>경기 광명시 광명로 765</t>
+  </si>
+  <si>
+    <t>부산 부산진구 중앙대로692번길 33</t>
+  </si>
+  <si>
+    <t>대구 남구 중앙대로 225</t>
+  </si>
+  <si>
+    <t>서울 구로구 경인로 393</t>
+  </si>
+  <si>
+    <t>경기 군포시 고산로 259</t>
+  </si>
+  <si>
+    <t>부산 사하구 다대로 532-1</t>
+  </si>
+  <si>
     <t>서울 강동구 양재대로 1382</t>
   </si>
   <si>
@@ -187,6 +1402,141 @@
     <t>경기 고양시 일산동구 백마로 493</t>
   </si>
   <si>
+    <t>충남 서산시 충의로 3</t>
+  </si>
+  <si>
+    <t>경기 부천시 경인로 487</t>
+  </si>
+  <si>
+    <t>대구 달성군 다사읍 달구벌대로 825</t>
+  </si>
+  <si>
+    <t>충남 아산시 충무로 37</t>
+  </si>
+  <si>
+    <t>서울시 강서구 화곡동 1026</t>
+  </si>
+  <si>
+    <t>충북 제천시 의림대로 202</t>
+  </si>
+  <si>
+    <t>서울 강북구 삼양로 158</t>
+  </si>
+  <si>
+    <t>대구 북구 동북로 303</t>
+  </si>
+  <si>
+    <t>경기 부천시 소사로 689</t>
+  </si>
+  <si>
+    <t>경기 부천시 경인로 170</t>
+  </si>
+  <si>
+    <t>울산 동구 방어진순환도로 634</t>
+  </si>
+  <si>
+    <t>경기 이천시 경충대로 2578</t>
+  </si>
+  <si>
+    <t>경기 용인시 기흥구 어정로 108-1</t>
+  </si>
+  <si>
+    <t>인천 남동구 남동대로 724</t>
+  </si>
+  <si>
+    <t>경북 구미시 인동북길 155</t>
+  </si>
+  <si>
+    <t>경기 수원시 장안구 수성로 267</t>
+  </si>
+  <si>
+    <t>대전 중구 충무로 139</t>
+  </si>
+  <si>
+    <t>경기 광명시 오리로 512</t>
+  </si>
+  <si>
+    <t>서울특별시 강북구 월계로 191</t>
+  </si>
+  <si>
+    <t>경기 화성시 효행로 269</t>
+  </si>
+  <si>
+    <t>부산 해운대구 해운대로570번길 51</t>
+  </si>
+  <si>
+    <t>부산 북구 금곡대로 107</t>
+  </si>
+  <si>
+    <t>부산 동래구 아시아드대로 110</t>
+  </si>
+  <si>
+    <t>제주특별자치도 서귀포시 일주서로 7</t>
+  </si>
+  <si>
+    <t>경기 용인시 처인구 중부대로 1166(삼가동)</t>
+  </si>
+  <si>
+    <t>충남 천안시 동남구 만남로 43 1층</t>
+  </si>
+  <si>
+    <t>부산 남구 신선로 424</t>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 도령로 159</t>
+  </si>
+  <si>
+    <t>서울 금천구 시흥대로 184</t>
+  </si>
+  <si>
+    <t>경기 용인시 기흥구 중부대로 266</t>
+  </si>
+  <si>
+    <t>서울 종로구 율곡로 45</t>
+  </si>
+  <si>
+    <t>경남 양산시 웅상대로 910</t>
+  </si>
+  <si>
+    <t>경기 하남시 대청로 25</t>
+  </si>
+  <si>
+    <t>서울 노원구 공릉로 231</t>
+  </si>
+  <si>
+    <t>서울 송파구 도곡로 434</t>
+  </si>
+  <si>
+    <t>충남 당진시 서문1길 62-18</t>
+  </si>
+  <si>
+    <t>서울 도봉구 도봉로 735</t>
+  </si>
+  <si>
+    <t>부산 영도구 태종로 150</t>
+  </si>
+  <si>
+    <t>서울 강동구 상일로6길 39</t>
+  </si>
+  <si>
+    <t>경기 양주시 장흥면 서울외곽순환고속도로 58 양주간이휴게시설내 양주휴게소DT점</t>
+  </si>
+  <si>
+    <t>경기 김포시 중봉로25번길 21</t>
+  </si>
+  <si>
+    <t>경남 양산시 양산대로 925</t>
+  </si>
+  <si>
+    <t>울산 남구 삼산로 230</t>
+  </si>
+  <si>
+    <t>경북 경주시 보문로 441</t>
+  </si>
+  <si>
+    <t>서울 노원구 동일로 1612</t>
+  </si>
+  <si>
     <t>울산 울주군 범서읍 울밀로 2877</t>
   </si>
   <si>
@@ -202,6 +1552,141 @@
     <t>경기 동두천시 평화로 2290</t>
   </si>
   <si>
+    <t xml:space="preserve">인천 연수구 비류대로 176 (옥련동) </t>
+  </si>
+  <si>
+    <t>전남 순천시 순광로 75</t>
+  </si>
+  <si>
+    <t>전북 전주시 완산구 모악로 4758</t>
+  </si>
+  <si>
+    <t>대구 달서구 달구벌대로 1684 (두류동)</t>
+  </si>
+  <si>
+    <t>충북 청주시 상당구 중고개로 281</t>
+  </si>
+  <si>
+    <t>경기 수원시 권선구 경수대로 195</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 거북골로 25 (남가좌동)</t>
+  </si>
+  <si>
+    <t>경기 김포시 김포한강1로 77-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 강서구 공항대로71길 3  (염창동) </t>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 덕영대로 1499 (망포동)</t>
+  </si>
+  <si>
+    <t>경기 용인시 기흥구 강남로 13 칼리지포인트</t>
+  </si>
+  <si>
+    <t>부산 금정구 중앙대로 1957</t>
+  </si>
+  <si>
+    <t>경남 창원시 마산회원구 내서읍 광려천서로 77 맥도날드 창원내서DT점</t>
+  </si>
+  <si>
+    <t>서울 강남구 논현로 667</t>
+  </si>
+  <si>
+    <t>전남 목포시 통일대로 88 (상동)</t>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 동광로 134</t>
+  </si>
+  <si>
+    <t>경남 김해시 분성로 144 (외동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인천 부평구 장제로 380 (삼산동) </t>
+  </si>
+  <si>
+    <t>경기 군포시 고산로 715 (산본동)</t>
+  </si>
+  <si>
+    <t>경기 구리시 검배로 7 (수택동)</t>
+  </si>
+  <si>
+    <t>광주 남구 대남대로 393</t>
+  </si>
+  <si>
+    <t>경기 수원시 팔달구 권광로 261</t>
+  </si>
+  <si>
+    <t>인천 연수구 하모니로 128 (송도동)</t>
+  </si>
+  <si>
+    <t>대구 달서구 월곡로 338</t>
+  </si>
+  <si>
+    <t>대구 달서구 이곡공원로 8</t>
+  </si>
+  <si>
+    <t>강원 춘천시 영서로 2173</t>
+  </si>
+  <si>
+    <t>대전 유성구 계룡로87번길 3 (봉명동)</t>
+  </si>
+  <si>
+    <t>경남 창원시 성산구 창이대로706번길 2</t>
+  </si>
+  <si>
+    <t>광주 북구 우치로 134</t>
+  </si>
+  <si>
+    <t>대전 서구 계백로 1124</t>
+  </si>
+  <si>
+    <t>부산 북구 백양대로 1045 (구포동)</t>
+  </si>
+  <si>
+    <t>전북 익산시 무왕로 1046</t>
+  </si>
+  <si>
+    <t>대전 중구 계백로 1549 (유천동)</t>
+  </si>
+  <si>
+    <t>경기 성남시 분당구 백현로101번길 29 C&amp;C 빌딩 1층</t>
+  </si>
+  <si>
+    <t>경기 남양주시 화도읍 비룡로 89</t>
+  </si>
+  <si>
+    <t>충북 청주시 청원구 공항로 156</t>
+  </si>
+  <si>
+    <t>대구 달서구 와룡로 134 (감삼동)</t>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 아주로 46 (원천동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 성남시 수정구 수정로 306 (신흥동) </t>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 덕영대로 1703 아이시티</t>
+  </si>
+  <si>
+    <t>전북 군산시 나운로 132</t>
+  </si>
+  <si>
+    <t>전북 전주시 완산구 용머리로 13</t>
+  </si>
+  <si>
+    <t>대전 대덕구 신탄진로 605 (상서동)</t>
+  </si>
+  <si>
+    <t>경기 수원시 장안구 서부로 2127</t>
+  </si>
+  <si>
+    <t>경기 의왕시 경수대로 351</t>
+  </si>
+  <si>
     <t>서울 강남구 도산대로 123 2층</t>
   </si>
   <si>
@@ -217,6 +1702,141 @@
     <t>인천 남동구 백범로 229 (만수동)</t>
   </si>
   <si>
+    <t>서울 동대문구 휘경로 13</t>
+  </si>
+  <si>
+    <t>전북 전주시 덕진구 기린대로 503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 동대문구 답십리로 291-1 (장안동) </t>
+  </si>
+  <si>
+    <t>서울 양천구 남부순환로 404</t>
+  </si>
+  <si>
+    <t>서울 용산구 이태원로 142-1</t>
+  </si>
+  <si>
+    <t>서울 동작구 노량진로 158</t>
+  </si>
+  <si>
+    <t>인천 중구 우현로 85-1 (인현동)</t>
+  </si>
+  <si>
+    <t>서울 서초구 방배로 81 유경빌딩 1층</t>
+  </si>
+  <si>
+    <t>서울 강북구 도봉로 342</t>
+  </si>
+  <si>
+    <t>경기 고양시 일산서구 대산로 113 1층 맥도날드(주엽동, 백마프라자)</t>
+  </si>
+  <si>
+    <t>부산 동래구 사직북로 1 (사직동)</t>
+  </si>
+  <si>
+    <t>서울 성북구 고려대로24길 42 방주빌딩</t>
+  </si>
+  <si>
+    <t>경남 창원시 마산회원구 3.15대로 742-1</t>
+  </si>
+  <si>
+    <t>서울 관악구 신림로 310</t>
+  </si>
+  <si>
+    <t>경북 경주시 중앙로 35</t>
+  </si>
+  <si>
+    <t>서울 영등포구 경인로 855</t>
+  </si>
+  <si>
+    <t>부산 사상구 가야대로 368</t>
+  </si>
+  <si>
+    <t>부산 부산진구 동평로 91</t>
+  </si>
+  <si>
+    <t>서울 성북구 동소문로 13 일화빌딩 1층</t>
+  </si>
+  <si>
+    <t>서울 노원구 중계로 218</t>
+  </si>
+  <si>
+    <t>경기 광명시 철망산로 87</t>
+  </si>
+  <si>
+    <t>대전 서구 둔산로 201 (하계동)</t>
+  </si>
+  <si>
+    <t>부산 금정구 금정로60번길 24 해자빌딩 1층 맥도날드 부산대2호점</t>
+  </si>
+  <si>
+    <t>부산 사하구 낙동대로 548</t>
+  </si>
+  <si>
+    <t>부산 남구 수영로 304 대승타워1층</t>
+  </si>
+  <si>
+    <t>서울 중랑구 망우로 202 동성빌딩</t>
+  </si>
+  <si>
+    <t>서울 양천구 목동로 221</t>
+  </si>
+  <si>
+    <t>부산 해운대구 좌동순환로 181</t>
+  </si>
+  <si>
+    <t>부산 금정구 수림로 12 에스케이아파트 상가 맥도날드</t>
+  </si>
+  <si>
+    <t>경남 창원시 마산합포구 월영동서로 20</t>
+  </si>
+  <si>
+    <t>경기 안양시 만안구 안양로292번길 22</t>
+  </si>
+  <si>
+    <t>부산 연제구 과정로 226</t>
+  </si>
+  <si>
+    <t>대구 중구 동성로 23-2</t>
+  </si>
+  <si>
+    <t>서울 광진구 아차산로 376</t>
+  </si>
+  <si>
+    <t>경기 광명시 광명로 895-1 (광명동)</t>
+  </si>
+  <si>
+    <t>경기 고양시 덕양구 화신로272번길 67</t>
+  </si>
+  <si>
+    <t>경북 포항시 북구 중앙로 291</t>
+  </si>
+  <si>
+    <t>서울 노원구 동일로 1341 장우빌딩 1층</t>
+  </si>
+  <si>
+    <t>경남 창원시 진해구 벚꽃로 68-1</t>
+  </si>
+  <si>
+    <t>서울 종로구 대학로 130 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 중랑구 봉화산로 194 신아타운1층 신내 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 성동구 왕십리로 227</t>
+  </si>
+  <si>
+    <t>인천 남동구 예술로 198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경남 진주시 진양호로 280 (신안동) </t>
+  </si>
+  <si>
+    <t>부산 동래구 충렬대로 486 (안락동)</t>
+  </si>
+  <si>
     <t xml:space="preserve">서울 양천구 목동동로 71 (신정동) </t>
   </si>
   <si>
@@ -232,6 +1852,141 @@
     <t>경기 시흥시 정왕대로 210 (정왕동, EMART시화점 1층)</t>
   </si>
   <si>
+    <t>서울 강남구 도산대로 407</t>
+  </si>
+  <si>
+    <t>서울 중랑구 상봉로 118 이마트상봉점 내 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 은평구 연서로 213</t>
+  </si>
+  <si>
+    <t>광주 서구 치평로 72</t>
+  </si>
+  <si>
+    <t>울산 남구 신정로 37</t>
+  </si>
+  <si>
+    <t>부산 해운대구 좌동순환로 455 (중동,맥도날드)</t>
+  </si>
+  <si>
+    <t>경기 고양시 덕양구 충경로 38</t>
+  </si>
+  <si>
+    <t>대구 동구 동촌로 243</t>
+  </si>
+  <si>
+    <t>부산 연제구 중앙대로 1031 (연산동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 양천구 목동서로 45 (목동) </t>
+  </si>
+  <si>
+    <t>경기 고양시 덕양구 호국로 1699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 고양시 일산서구 일현로 56 (탄현동) </t>
+  </si>
+  <si>
+    <t>대구 북구 구암로 83</t>
+  </si>
+  <si>
+    <t>경기 남양주시 와부읍 덕소로 93 희빌딩 1층</t>
+  </si>
+  <si>
+    <t>경기 시흥시 대은로 90</t>
+  </si>
+  <si>
+    <t>서울 동대문구 전농로16길 8</t>
+  </si>
+  <si>
+    <t>대구 수성구 동원로 136 이마트만촌점</t>
+  </si>
+  <si>
+    <t>경기 평택시 쇼핑로 13</t>
+  </si>
+  <si>
+    <t>부산 북구 금곡대로 360</t>
+  </si>
+  <si>
+    <t>전북 군산시 구암3.1로 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인천 연수구 먼우금로 200 (연수동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 용인시 처인구 금령로 97 (김량장동) </t>
+  </si>
+  <si>
+    <t>대구 달서구 진천로 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 부천시 중동로262번길 94 (중동) </t>
+  </si>
+  <si>
+    <t>경기 과천시 별양상가3로 11 1층</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 안양시 동안구 평촌대로 137 (호계동) </t>
+  </si>
+  <si>
+    <t>전북 익산시 무왕로 888</t>
+  </si>
+  <si>
+    <t>부산 부산진구 가야대로 607</t>
+  </si>
+  <si>
+    <t>서울 강서구 공항대로 21 (공항동,맥도날드)</t>
+  </si>
+  <si>
+    <t>경북 구미시 형곡중앙로 31 (형곡동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 광명시 오리로856번길 17 (철산동) </t>
+  </si>
+  <si>
+    <t>서울 송파구 올림픽로 108 맥스빌딩 1층</t>
+  </si>
+  <si>
+    <t>부산 북구 덕천로 179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인천 중구 인항로 38 (신흥동3가) </t>
+  </si>
+  <si>
+    <t>경기 고양시 일산동구 중앙로1275번길 38-5 이레21빌딩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경북 포항시 남구 냉천로 10 (인덕동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 의정부시 평화로 315 (호원동) </t>
+  </si>
+  <si>
+    <t>전남 여수시 좌수영로 277 이마트내 1층 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 송파구 동남로 196</t>
+  </si>
+  <si>
+    <t>경기 구리시 장자대로 84</t>
+  </si>
+  <si>
+    <t>서울 은평구 연서로 131 홍천빌딩</t>
+  </si>
+  <si>
+    <t>대구 달서구 용산로 222 (용산동)</t>
+  </si>
+  <si>
+    <t>강원 강릉시 경강로 2097</t>
+  </si>
+  <si>
+    <t>경기 용인시 수지구 풍덕천로 119 (풍덕천동)</t>
+  </si>
+  <si>
+    <t>경남 창원시 성산구 원이대로 608</t>
+  </si>
+  <si>
     <t>부산 수영구 황령대로 521 (남천동)</t>
   </si>
   <si>
@@ -247,6 +2002,141 @@
     <t>인천 연수구 경원대로 184</t>
   </si>
   <si>
+    <t>경기 부천시 길주로 118 (상동)</t>
+  </si>
+  <si>
+    <t>서울 용산구 청파로 378 서울역 2층</t>
+  </si>
+  <si>
+    <t>대전 서구 둔산로31번길 16 (둔산동)</t>
+  </si>
+  <si>
+    <t>경기 포천시 호국로 894</t>
+  </si>
+  <si>
+    <t>경기 수원시 팔달구 경수대로 676</t>
+  </si>
+  <si>
+    <t>서울 구로구 새말로 97 (구로동)</t>
+  </si>
+  <si>
+    <t>경남 양산시 동면 남양산길 7</t>
+  </si>
+  <si>
+    <t>경남 창원시 의창구 원이대로 320 더시티세븐몰 W-103 맥도날드</t>
+  </si>
+  <si>
+    <t>인천 서구 서곶로 265</t>
+  </si>
+  <si>
+    <t>서울 서초구 강남대로 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 평택시 경기대로 570 (세교동) </t>
+  </si>
+  <si>
+    <t>서울 성동구 뚝섬로 379</t>
+  </si>
+  <si>
+    <t>경기 오산시 경기대로 170</t>
+  </si>
+  <si>
+    <t>광주 북구 설죽로 283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 도봉구 도봉로 541 (쌍문동) </t>
+  </si>
+  <si>
+    <t>서울 서초구 강남대로 305, 101호(서초 현대렉시온)</t>
+  </si>
+  <si>
+    <t>서울 강남구 논현로 848 1층 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 은평구 은평로 111 은평이마트 8층 맥도날드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">울산 남구 중앙로 126 (달동) </t>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 노연로 7</t>
+  </si>
+  <si>
+    <t>서울 종로구 종로 115</t>
+  </si>
+  <si>
+    <t>경남 거제시 장평로 12 디큐브백화점 1층</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 안성시 중앙로389번길 6 (대천동) </t>
+  </si>
+  <si>
+    <t>서울 구로구 디지털로31길 12 태평양물산 1층 맥도날드</t>
+  </si>
+  <si>
+    <t>경남 양산시 웅상대로 1259</t>
+  </si>
+  <si>
+    <t>경기 화성시 효행로 1260 (능동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 전주시 완산구 백제대로 238 (중화산동2가) </t>
+  </si>
+  <si>
+    <t>서울 중구 명동7길 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 서초구 효령로49길 52 (서초동) </t>
+  </si>
+  <si>
+    <t>경남 창원시 마산합포구 서성로 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">충남 천안시 서북구 동서대로 49 (두정동) </t>
+  </si>
+  <si>
+    <t>서울 강남구 테헤란로 326 아이타워 1층 맥도날드</t>
+  </si>
+  <si>
+    <t>서울 강남구 도곡로 409</t>
+  </si>
+  <si>
+    <t>대구 수성구 달구벌대로 3199 (매호동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 의정부시 서부로 717 (가능동) </t>
+  </si>
+  <si>
+    <t>전남 목포시 영산로 577</t>
+  </si>
+  <si>
+    <t>강원 속초시 동해대로 4118</t>
+  </si>
+  <si>
+    <t>대구 서구 서대구로 95 (평리동)</t>
+  </si>
+  <si>
+    <t>경기 수원시 장안구 경수대로 991 (송죽동)</t>
+  </si>
+  <si>
+    <t>서울 동작구 흑석로 84 (R&amp;D센터 지하1층 맥도날드)</t>
+  </si>
+  <si>
+    <t>대구 북구 침산로 120</t>
+  </si>
+  <si>
+    <t>대전 대덕구 한밭대로 1102 (중리동)</t>
+  </si>
+  <si>
+    <t>대구 수성구 수성로 238 (중동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강원 원주시 서원대로 426 (단구동) </t>
+  </si>
+  <si>
+    <t>서울 마포구 마포대로 53 (도화동)</t>
+  </si>
+  <si>
     <t>서울 구로구 경인로 662 디큐브시티 B2</t>
   </si>
   <si>
@@ -262,6 +2152,141 @@
     <t>경기 양주시 평화로 1511</t>
   </si>
   <si>
+    <t>인천 남동구 인주대로 514 (구월동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 동작구 사당로 300 (사당동) </t>
+  </si>
+  <si>
+    <t>대전 중구 중앙로 64</t>
+  </si>
+  <si>
+    <t>대전 동구 동서대로 1689 (용전동)</t>
+  </si>
+  <si>
+    <t>경남 진주시 진주대로 838</t>
+  </si>
+  <si>
+    <t>서울 금천구 가산디지털1로 165 (가산동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경북 포항시 남구 새천년대로 470 (대잠동) </t>
+  </si>
+  <si>
+    <t>경남 김해시 김해대로 2471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 안양시 동안구 경수대로 839 (비산동) </t>
+  </si>
+  <si>
+    <t>대전 서구 도산로 324</t>
+  </si>
+  <si>
+    <t>충북 충주시 국원대로 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 의정부시 호국로 1604 (금오동) </t>
+  </si>
+  <si>
+    <t>경기 김포시 고촌읍 김포대로 336</t>
+  </si>
+  <si>
+    <t>울산 북구 산업로 1448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 평택시 경기대로 1395 (서정동) </t>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 중앙로 277</t>
+  </si>
+  <si>
+    <t>서울 서초구 바우뫼로 178</t>
+  </si>
+  <si>
+    <t>경기 용인시 기흥구 용구대로 2420</t>
+  </si>
+  <si>
+    <t>서울 금천구 벚꽃로 298 대륭포스트타워 6차</t>
+  </si>
+  <si>
+    <t>서울 중구 퇴계로 116-1 (회현동 3가)</t>
+  </si>
+  <si>
+    <t>충남 천안시 서북구 충무로 166 (쌍용동)</t>
+  </si>
+  <si>
+    <t>광주 북구 하남대로 635</t>
+  </si>
+  <si>
+    <t>서울 광진구 광나루로 392</t>
+  </si>
+  <si>
+    <t>서울 강남구 선릉로 667</t>
+  </si>
+  <si>
+    <t>전북 전주시 덕진구 송천중앙로 200</t>
+  </si>
+  <si>
+    <t>경북 포항시 북구 삼호로 202</t>
+  </si>
+  <si>
+    <t>부산 동구 자성로 127</t>
+  </si>
+  <si>
+    <t>울산 남구 화합로 201</t>
+  </si>
+  <si>
+    <t>서울 영등포구 국제금융로 10 L3층</t>
+  </si>
+  <si>
+    <t>경기 수원시 권선구 권선로 684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 고양시 일산동구 고양대로 745 (중산동) </t>
+  </si>
+  <si>
+    <t>대구 달서구 월배로 67 (진천동)</t>
+  </si>
+  <si>
+    <t>광주 북구 임방울대로 1048 (용두동)</t>
+  </si>
+  <si>
+    <t>서울 마포구 양화로 45 메세나폴리스 2층 맥도날드</t>
+  </si>
+  <si>
+    <t>대구 달서구 달서대로 455</t>
+  </si>
+  <si>
+    <t>울산 중구 번영로 576</t>
+  </si>
+  <si>
+    <t>인천 부평구 경인로 1191</t>
+  </si>
+  <si>
+    <t>서울 강남구 삼성로92길 29 도일빌딩 1층</t>
+  </si>
+  <si>
+    <t>인천 부평구 부평대로 96</t>
+  </si>
+  <si>
+    <t>경남 창원시 성산구 단정로 22, 1층</t>
+  </si>
+  <si>
+    <t>경기 용인시 수지구 신수로 677</t>
+  </si>
+  <si>
+    <t>서울 서대문구 연세로 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 양천구 남부순환로 553 (신월동) </t>
+  </si>
+  <si>
+    <t>경남 김해시 가야로 167</t>
+  </si>
+  <si>
+    <t>광주 북구 북문대로187번길 2</t>
+  </si>
+  <si>
     <t>경남 사천시 사천읍 사천대로 1838</t>
   </si>
   <si>
@@ -275,6 +2300,141 @@
   </si>
   <si>
     <t>충북 청주시 서원구 서부로 1344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산 부산진구 성지로 152 (초읍동) </t>
+  </si>
+  <si>
+    <t>부산 연제구 중앙대로 1179 (거제동)</t>
+  </si>
+  <si>
+    <t>경기 고양시 일산동구 중앙로 1190 (마두동)</t>
+  </si>
+  <si>
+    <t>경북 경주시 태종로 701</t>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 창룡대로 370-1</t>
+  </si>
+  <si>
+    <t>경기 성남시 분당구 성남대로 45 (구미동)</t>
+  </si>
+  <si>
+    <t>경기 의정부시 행복로 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강원 원주시 서원대로 154 (단계동) </t>
+  </si>
+  <si>
+    <t>경기 평택시 서동대로 3929</t>
+  </si>
+  <si>
+    <t>경기 남양주시 진접읍 금강로 1467</t>
+  </si>
+  <si>
+    <t>부산 동래구 충렬대로 121</t>
+  </si>
+  <si>
+    <t>경기 이천시 마장면 중부고속도로 82</t>
+  </si>
+  <si>
+    <t>경기 군포시 산본로 347 이마트 내 3층</t>
+  </si>
+  <si>
+    <t>대구 수성구 청수로 157 (황금동)</t>
+  </si>
+  <si>
+    <t>제주특별자치도 서귀포시 일주동로 8665 (서귀동)</t>
+  </si>
+  <si>
+    <t>대구 수성구 달구벌대로 2634 (만촌동)</t>
+  </si>
+  <si>
+    <t>서울 영등포구 선유로 195</t>
+  </si>
+  <si>
+    <t>부산 해운대구 해운대로 1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 서초구 서초대로 316(서초동) </t>
+  </si>
+  <si>
+    <t>경기 남양주시 경춘로 1273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경남 창원시 의창구 의창대로 50 (팔용동) </t>
+  </si>
+  <si>
+    <t>경남 통영시 광도면 죽림4로 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 전주시 덕진구 백제대로 692 (인후동2가) </t>
+  </si>
+  <si>
+    <t>대구 수성구 달구벌대로 2345</t>
+  </si>
+  <si>
+    <t>충남 천안시 동남구 천안대로 699</t>
+  </si>
+  <si>
+    <t>인천 미추홀구 매소홀로 600 (문학동)</t>
+  </si>
+  <si>
+    <t>서울 송파구 백제고분로 390</t>
+  </si>
+  <si>
+    <t>경기 오산시 경기대로 651</t>
+  </si>
+  <si>
+    <t>경북 구미시 야은로 447</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 1순환로 518</t>
+  </si>
+  <si>
+    <t>경기 성남시 분당구 대왕판교로606번길 58</t>
+  </si>
+  <si>
+    <t>서울 종로구 창경궁로 241-1</t>
+  </si>
+  <si>
+    <t>부산 남구 황령대로 374 (대연동)</t>
+  </si>
+  <si>
+    <t>서울 송파구 송파대로 558</t>
+  </si>
+  <si>
+    <t>부산 기장군 기장읍 기장대로 500</t>
+  </si>
+  <si>
+    <t>대전 유성구 도안북로 81 (용계동)</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 2순환로 1076</t>
+  </si>
+  <si>
+    <t>서울 강서구 양천로 546</t>
+  </si>
+  <si>
+    <t>서울 금천구 디지털로 185 마리오아울렛1</t>
+  </si>
+  <si>
+    <t>울산 남구 문수로423번길 2</t>
+  </si>
+  <si>
+    <t>경기 화성시 경기대로 1004 (병점동)</t>
+  </si>
+  <si>
+    <t>전남 순천시 구암원길 1 (덕암동)</t>
+  </si>
+  <si>
+    <t>대구 중구 국채보상로 586 (동성로2가)</t>
+  </si>
+  <si>
+    <t>경기 의정부시 민락로 11</t>
+  </si>
+  <si>
+    <t>서울 강북구 도봉로 204 미아역 맥도날드</t>
   </si>
   <si>
     <t>대전 유성구 대덕대로 535</t>
@@ -666,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -674,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -682,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -690,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -698,3207 +2858,3207 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>508</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>513</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>520</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>58</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>526</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>527</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>58</v>
+        <v>528</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>529</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>58</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>59</v>
+        <v>534</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>535</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>536</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>537</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>58</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>544</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>61</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>58</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>59</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>61</v>
+        <v>556</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>62</v>
+        <v>557</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>64</v>
+        <v>559</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>65</v>
+        <v>560</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>66</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>562</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>64</v>
+        <v>564</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>65</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>66</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>572</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>63</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>64</v>
+        <v>574</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>65</v>
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>66</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>62</v>
+        <v>577</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>63</v>
+        <v>578</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>64</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>65</v>
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>66</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>582</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>583</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>65</v>
+        <v>585</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>66</v>
+        <v>586</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>589</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>65</v>
+        <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>66</v>
+        <v>591</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>63</v>
+        <v>593</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>64</v>
+        <v>594</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>65</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>596</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>63</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>64</v>
+        <v>599</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>65</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>66</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>63</v>
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>66</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>67</v>
+        <v>607</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>68</v>
+        <v>608</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>69</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>70</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>71</v>
+        <v>611</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>67</v>
+        <v>612</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>68</v>
+        <v>613</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>69</v>
+        <v>614</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>70</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>67</v>
+        <v>617</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>68</v>
+        <v>618</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>69</v>
+        <v>619</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>70</v>
+        <v>620</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>71</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>622</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>623</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>70</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>71</v>
+        <v>626</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>67</v>
+        <v>627</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>68</v>
+        <v>628</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>629</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>70</v>
+        <v>630</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>71</v>
+        <v>631</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>67</v>
+        <v>632</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>68</v>
+        <v>633</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>69</v>
+        <v>634</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>70</v>
+        <v>635</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>71</v>
+        <v>636</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>67</v>
+        <v>637</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>68</v>
+        <v>638</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>69</v>
+        <v>639</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>70</v>
+        <v>640</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>71</v>
+        <v>641</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>67</v>
+        <v>642</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>68</v>
+        <v>643</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>69</v>
+        <v>644</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>70</v>
+        <v>645</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>71</v>
+        <v>646</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>67</v>
+        <v>647</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>68</v>
+        <v>648</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>649</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>70</v>
+        <v>650</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>71</v>
+        <v>651</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>67</v>
+        <v>652</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>68</v>
+        <v>653</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>69</v>
+        <v>654</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>70</v>
+        <v>655</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>71</v>
+        <v>656</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>72</v>
+        <v>657</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>73</v>
+        <v>658</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>74</v>
+        <v>659</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>75</v>
+        <v>660</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>76</v>
+        <v>661</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
+        <v>662</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>73</v>
+        <v>663</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>74</v>
+        <v>664</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>665</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>76</v>
+        <v>666</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>72</v>
+        <v>667</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>73</v>
+        <v>668</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>74</v>
+        <v>669</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>75</v>
+        <v>670</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>76</v>
+        <v>671</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>72</v>
+        <v>672</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>73</v>
+        <v>673</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>74</v>
+        <v>674</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>675</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>76</v>
+        <v>676</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>72</v>
+        <v>677</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>73</v>
+        <v>678</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>74</v>
+        <v>679</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>75</v>
+        <v>680</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>76</v>
+        <v>681</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>72</v>
+        <v>682</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>73</v>
+        <v>683</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>75</v>
+        <v>685</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>76</v>
+        <v>686</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>72</v>
+        <v>687</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>73</v>
+        <v>688</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>74</v>
+        <v>689</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>75</v>
+        <v>690</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>76</v>
+        <v>691</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>72</v>
+        <v>692</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>73</v>
+        <v>693</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>74</v>
+        <v>694</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>695</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>76</v>
+        <v>696</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>72</v>
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>73</v>
+        <v>698</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>74</v>
+        <v>699</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>75</v>
+        <v>700</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>76</v>
+        <v>701</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>72</v>
+        <v>702</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>73</v>
+        <v>703</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>74</v>
+        <v>704</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>75</v>
+        <v>705</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>76</v>
+        <v>706</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>77</v>
+        <v>707</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>78</v>
+        <v>708</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>79</v>
+        <v>709</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>80</v>
+        <v>710</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>81</v>
+        <v>711</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>77</v>
+        <v>712</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>78</v>
+        <v>713</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>79</v>
+        <v>714</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>715</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>81</v>
+        <v>716</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>77</v>
+        <v>717</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>78</v>
+        <v>718</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>79</v>
+        <v>719</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>80</v>
+        <v>720</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>81</v>
+        <v>721</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>77</v>
+        <v>722</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>78</v>
+        <v>723</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>79</v>
+        <v>724</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>80</v>
+        <v>725</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>81</v>
+        <v>726</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>77</v>
+        <v>727</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>78</v>
+        <v>728</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>79</v>
+        <v>729</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>80</v>
+        <v>730</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>81</v>
+        <v>731</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>77</v>
+        <v>732</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>78</v>
+        <v>733</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>79</v>
+        <v>734</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>80</v>
+        <v>735</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>81</v>
+        <v>736</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>77</v>
+        <v>737</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>78</v>
+        <v>738</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>79</v>
+        <v>739</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>80</v>
+        <v>740</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>81</v>
+        <v>741</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>77</v>
+        <v>742</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>78</v>
+        <v>743</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>79</v>
+        <v>744</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>80</v>
+        <v>745</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>81</v>
+        <v>746</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>77</v>
+        <v>747</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>78</v>
+        <v>748</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>79</v>
+        <v>749</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>80</v>
+        <v>750</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>81</v>
+        <v>751</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>77</v>
+        <v>752</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>78</v>
+        <v>753</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>79</v>
+        <v>754</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>80</v>
+        <v>755</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>81</v>
+        <v>756</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>82</v>
+        <v>757</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>83</v>
+        <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>39</v>
+        <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>84</v>
+        <v>759</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>85</v>
+        <v>760</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>86</v>
+        <v>761</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>37</v>
+        <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>82</v>
+        <v>762</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>83</v>
+        <v>763</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>84</v>
+        <v>764</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>85</v>
+        <v>765</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>86</v>
+        <v>766</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>82</v>
+        <v>767</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>83</v>
+        <v>768</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>39</v>
+        <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>84</v>
+        <v>769</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>85</v>
+        <v>770</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>86</v>
+        <v>771</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>82</v>
+        <v>772</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>83</v>
+        <v>773</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>39</v>
+        <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>84</v>
+        <v>774</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>85</v>
+        <v>775</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>86</v>
+        <v>776</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>82</v>
+        <v>777</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>83</v>
+        <v>778</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>84</v>
+        <v>779</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>40</v>
+        <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>85</v>
+        <v>780</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>86</v>
+        <v>781</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>82</v>
+        <v>782</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>83</v>
+        <v>783</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>39</v>
+        <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>84</v>
+        <v>784</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>85</v>
+        <v>785</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>86</v>
+        <v>786</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>82</v>
+        <v>787</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>83</v>
+        <v>788</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>84</v>
+        <v>789</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>85</v>
+        <v>790</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>86</v>
+        <v>791</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>82</v>
+        <v>792</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>83</v>
+        <v>793</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>39</v>
+        <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>84</v>
+        <v>794</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>85</v>
+        <v>795</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>86</v>
+        <v>796</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>82</v>
+        <v>797</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>83</v>
+        <v>798</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>39</v>
+        <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>84</v>
+        <v>799</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>85</v>
+        <v>800</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>86</v>
+        <v>801</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>82</v>
+        <v>802</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>83</v>
+        <v>803</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>39</v>
+        <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>84</v>
+        <v>804</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>85</v>
+        <v>805</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>86</v>
+        <v>806</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>87</v>
+        <v>807</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>88</v>
+        <v>808</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>89</v>
+        <v>809</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>90</v>
+        <v>810</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>46</v>
+        <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>91</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
